--- a/data/new_posteriors/no_elementary_skills/simple_model/noleak/constrained/results_model1a_noleak_constrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/simple_model/noleak/constrained/results_model1a_noleak_constrained.xlsx
@@ -622,25 +622,25 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.9988639504366098</v>
+        <v>0.9986038038365268</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.9999217332665077</v>
+        <v>0.9996722259293115</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9999825180410691</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.9970698439175792</v>
+        <v>0.9924006565224265</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9992866611469318</v>
+        <v>1.0</v>
       </c>
       <c r="J3" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.8989148535057891</v>
+        <v>1.0</v>
       </c>
       <c r="L3" t="n" s="25">
         <v>1.0</v>
@@ -657,25 +657,25 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987628592429082</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999905661312113</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.9997133626502709</v>
+        <v>0.9991534821357767</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9999999996269755</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.9997361565408506</v>
+        <v>1.0</v>
       </c>
       <c r="L4" t="n" s="25">
         <v>1.0</v>
@@ -692,25 +692,25 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998455303631983</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9999999999999951</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9999907736430119</v>
+        <v>1.0</v>
       </c>
       <c r="L5" t="n" s="25">
         <v>1.0</v>
@@ -727,25 +727,25 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.9999744279750036</v>
+        <v>0.9998919557943996</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9999999999999984</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9999987328523009</v>
+        <v>1.0</v>
       </c>
       <c r="L6" t="n" s="25">
         <v>1.0</v>
@@ -762,25 +762,25 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.9991274378874396</v>
+        <v>0.9989275631034111</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.9999984732404491</v>
+        <v>0.999992150203056</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9999999999024841</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.9999264291745467</v>
+        <v>0.9997252734072887</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9999999999927577</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.9999346317783462</v>
+        <v>1.0</v>
       </c>
       <c r="L7" t="n" s="25">
         <v>1.0</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999987299756118</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999999916217</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.9993744113189219</v>
+        <v>0.9995365738711016</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9999999951354414</v>
+        <v>0.999999998254345</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999999995857503</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.9804205571019377</v>
+        <v>0.9772906224640616</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9918645376684081</v>
+        <v>0.9976726984450242</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.44683149221674895</v>
+        <v>0.46973864925038133</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,25 +832,25 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.9999845703437606</v>
+        <v>0.9999348061217294</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9999999999999997</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9999998841222452</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n" s="25">
         <v>1.0</v>
@@ -867,25 +867,25 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988625441701168</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.9999986664649917</v>
+        <v>0.9999931433926667</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.999999999959948</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.9998904968932578</v>
+        <v>0.9996355503714819</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9999999999963215</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.9999799237824233</v>
+        <v>1.0</v>
       </c>
       <c r="L10" t="n" s="25">
         <v>1.0</v>
@@ -902,25 +902,25 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.9999962581098016</v>
+        <v>0.9999812188037007</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.999999922498761</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.9999733663354602</v>
+        <v>0.9998874706529893</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9999999994625067</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9999325280534376</v>
+        <v>1.0</v>
       </c>
       <c r="L11" t="n" s="25">
         <v>1.0</v>
@@ -937,25 +937,25 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.9999845703437606</v>
+        <v>0.9999348061217294</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9999999999999997</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9999998841222452</v>
+        <v>1.0</v>
       </c>
       <c r="L12" t="n" s="25">
         <v>1.0</v>
@@ -972,25 +972,25 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.9991493793904361</v>
+        <v>0.9989545254113691</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.9969794481525968</v>
+        <v>0.9870402407688712</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.5669187101124126</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.9998959364107073</v>
+        <v>0.9996098141562775</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9999310123561127</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9999798278939418</v>
+        <v>1.0</v>
       </c>
       <c r="L13" t="n" s="25">
         <v>1.0</v>
@@ -1007,28 +1007,28 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9993455450789266</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.9999710701574831</v>
+        <v>0.9999813590445108</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.9633828822826286</v>
+        <v>0.9863097136064665</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.99996299736163</v>
+        <v>0.9999761572668473</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.9999228270695063</v>
+        <v>0.999993388016971</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.6652442937456171</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.9253116744831718</v>
+        <v>0.9604108736216355</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.18649633698327567</v>
+        <v>0.9999998857851365</v>
       </c>
       <c r="M14" t="n" s="25">
         <v>4.527253923894539E-18</v>
@@ -1042,25 +1042,25 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987628592429082</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.9999919193686365</v>
+        <v>0.9999584645072745</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9998555831295834</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.9997133626502709</v>
+        <v>0.9991534821357767</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9991712963818669</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.9552683743192182</v>
+        <v>1.0</v>
       </c>
       <c r="L15" t="n" s="25">
         <v>1.0</v>
@@ -1077,28 +1077,28 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9993455450789266</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.9999933737059371</v>
+        <v>0.9999957303786636</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9999999570501501</v>
+        <v>0.9999999939194247</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.9999928437010657</v>
+        <v>0.9999953888716544</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9999999999998656</v>
+        <v>0.9999999999999742</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.999999998939674</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.999999862195202</v>
+        <v>0.9999999726490066</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999999933647311</v>
+        <v>1.0</v>
       </c>
       <c r="M16" t="n" s="25">
         <v>0.9996144106340238</v>
@@ -1112,25 +1112,25 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988625441701168</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.9999986664649917</v>
+        <v>0.9999931433926667</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.999999999959948</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.9998860506821844</v>
+        <v>0.9996207563616588</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9999999999959899</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.9999774288148149</v>
+        <v>1.0</v>
       </c>
       <c r="L17" t="n" s="25">
         <v>1.0</v>
@@ -1147,16 +1147,16 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9991519823504463</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.9999995379719052</v>
+        <v>0.9999976243918326</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9999999999999568</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.999992230858993</v>
+        <v>0.9999628157371441</v>
       </c>
       <c r="I18" t="n" s="25">
         <v>1.0</v>
@@ -1165,7 +1165,7 @@
         <v>1.0</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9999999218192753</v>
+        <v>1.0</v>
       </c>
       <c r="L18" t="n" s="25">
         <v>1.0</v>
@@ -1182,25 +1182,25 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.9999744279750036</v>
+        <v>0.9998919557943996</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9999999999999984</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9999987328523009</v>
+        <v>1.0</v>
       </c>
       <c r="L19" t="n" s="25">
         <v>1.0</v>
@@ -1217,25 +1217,25 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998455303631983</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9999999999999951</v>
+        <v>1.0</v>
       </c>
       <c r="J20" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9999907736430119</v>
+        <v>1.0</v>
       </c>
       <c r="L20" t="n" s="25">
         <v>1.0</v>
@@ -1252,16 +1252,16 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9991519823504463</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.9999995379719052</v>
+        <v>0.9999976243918326</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9999999999999568</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.9999950388597546</v>
+        <v>0.9999762549934307</v>
       </c>
       <c r="I21" t="n" s="25">
         <v>1.0</v>
@@ -1270,7 +1270,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9999999914859279</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n" s="25">
         <v>1.0</v>
@@ -1287,25 +1287,25 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.9999764198929206</v>
+        <v>0.9999003711945014</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9999999999999987</v>
+        <v>1.0</v>
       </c>
       <c r="J22" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.99999899485984</v>
+        <v>1.0</v>
       </c>
       <c r="L22" t="n" s="25">
         <v>1.0</v>
@@ -1322,16 +1322,16 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9991519823504463</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.9999995379719052</v>
+        <v>0.9999976243918326</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9999999999999568</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.9999881215995371</v>
+        <v>0.9999431490955246</v>
       </c>
       <c r="I23" t="n" s="25">
         <v>1.0</v>
@@ -1340,7 +1340,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9999993218342604</v>
+        <v>1.0</v>
       </c>
       <c r="L23" t="n" s="25">
         <v>1.0</v>
@@ -1357,25 +1357,25 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.9999764198929206</v>
+        <v>0.9999003711945014</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9999999999999987</v>
+        <v>1.0</v>
       </c>
       <c r="J24" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.99999899485984</v>
+        <v>1.0</v>
       </c>
       <c r="L24" t="n" s="25">
         <v>1.0</v>
@@ -1392,25 +1392,25 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.9999989604594058</v>
+        <v>0.9999946552166382</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9999999999889619</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998455303631983</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9999999999997394</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9999631525032587</v>
+        <v>1.0</v>
       </c>
       <c r="L25" t="n" s="25">
         <v>1.0</v>
@@ -1427,25 +1427,25 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987628592429082</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.9522935044601201</v>
+        <v>0.8297747231177209</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.6892102215584675</v>
+        <v>1.0</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.9827805113493441</v>
+        <v>0.950774743260213</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.8981339055710925</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.8606849747810309</v>
+        <v>1.0</v>
       </c>
       <c r="L26" t="n" s="25">
         <v>1.0</v>
@@ -1462,28 +1462,28 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9992874728754778</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.9994328908555525</v>
+        <v>0.9996798485973941</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.7436227406192696</v>
+        <v>0.8721451575958594</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.9998547666653038</v>
+        <v>0.999903177817316</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.999481752945598</v>
+        <v>0.9999470890337561</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>0.002266401580341779</v>
+        <v>0.9999886054347227</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.96216885034987</v>
+        <v>0.985514535038457</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.15512066893808718</v>
+        <v>0.9999999999999749</v>
       </c>
       <c r="M27" t="n" s="25">
         <v>1.6844611136281664E-22</v>
@@ -1497,25 +1497,25 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.999039066803416</v>
+        <v>0.9988189730891767</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.9999978313666398</v>
+        <v>0.9999888500541806</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9999999990669062</v>
+        <v>1.0</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.9998610326545109</v>
+        <v>0.9995405399550081</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9999999997959595</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9998896685160733</v>
+        <v>1.0</v>
       </c>
       <c r="L28" t="n" s="25">
         <v>1.0</v>
@@ -1532,25 +1532,25 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984827843506957</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.9999962083360194</v>
+        <v>0.9999805046840048</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9999999643406988</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.9982868062978894</v>
+        <v>0.9960465209814735</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9999987242562152</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.9911231210102833</v>
+        <v>1.0</v>
       </c>
       <c r="L29" t="n" s="25">
         <v>1.0</v>
@@ -1567,28 +1567,28 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9988289146221508</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.9074129222781414</v>
+        <v>0.9402767877047212</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.12661493886450953</v>
+        <v>0.4907452475557297</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.9347469238292465</v>
+        <v>0.947384050892761</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.3806329364591275</v>
+        <v>0.7096513806662211</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>1.7643255916747912E-10</v>
+        <v>0.9999771377687576</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6523062942436713</v>
+        <v>0.6900105537080569</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>2.3468131431798405E-8</v>
+        <v>6.352151249946083E-8</v>
       </c>
       <c r="M30" t="n" s="25">
         <v>2.3021300241567363E-36</v>
@@ -1602,25 +1602,25 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.9999832523071457</v>
+        <v>0.9999292374119777</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9999999999999996</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9999998539139474</v>
+        <v>1.0</v>
       </c>
       <c r="L31" t="n" s="25">
         <v>1.0</v>
@@ -1637,28 +1637,28 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9988289146221508</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.8987325046910183</v>
+        <v>0.9329334086786432</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.025412569209433557</v>
+        <v>0.11013045274170458</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.9307584856780335</v>
+        <v>0.9441218528246201</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.2166374433559105</v>
+        <v>0.523777978383254</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>2.740372403274988E-12</v>
+        <v>0.9982252330372803</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6523062639462035</v>
+        <v>0.6900105346591806</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>2.7188961678192453E-9</v>
+        <v>7.359273725175092E-9</v>
       </c>
       <c r="M32" t="n" s="25">
         <v>6.704201331547735E-39</v>
@@ -1672,28 +1672,28 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.04843355558257199</v>
+        <v>0.050128517831337344</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>3.931603284448882E-4</v>
+        <v>5.233936473926332E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>4.910400324556555E-8</v>
+        <v>1.47491426671248E-7</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>3.931681463926664E-4</v>
+        <v>5.233961569304608E-4</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>1.6533560888539155E-10</v>
+        <v>8.375750956602219E-10</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>6.79983655788901E-24</v>
+        <v>2.500644121754563E-16</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>9.307164610952819E-8</v>
+        <v>1.617647877442371E-7</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>1.5916883915914207E-23</v>
+        <v>3.2405118571174797E-16</v>
       </c>
       <c r="M33" t="n" s="25">
         <v>9.354268571041864E-55</v>
@@ -1707,28 +1707,28 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9637737615122026</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.07541813561346608</v>
+        <v>0.21645477455047524</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.9836875112577306</v>
+        <v>0.9878665993448128</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.8980772299438537</v>
+        <v>0.9805180153320261</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>1.6725824871100036E-9</v>
+        <v>0.06285000239247994</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.8660762251141307</v>
+        <v>0.9191865767349978</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>6.145054538843331E-6</v>
+        <v>0.9928639601452801</v>
       </c>
       <c r="M34" t="n" s="25">
         <v>2.0533755640502E-34</v>
@@ -1742,28 +1742,28 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.006423132281581189</v>
+        <v>0.006580133393588525</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>3.0337426139974005E-6</v>
+        <v>3.851517852028647E-6</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.7375705353018397E-10</v>
+        <v>5.864223559713866E-10</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>3.0337402534277805E-6</v>
+        <v>3.851513316744945E-6</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>2.987117817928189E-16</v>
+        <v>1.041441450624307E-15</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>1.0586306129482693E-31</v>
+        <v>6.010532581405946E-25</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>9.904847155330973E-12</v>
+        <v>1.1823039955265762E-11</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>9.404226824339175E-34</v>
+        <v>2.2869184886481287E-33</v>
       </c>
       <c r="M35" t="n" s="25">
         <v>9.244857456832347E-67</v>
@@ -1777,28 +1777,28 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9637737615122026</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.0754181349899714</v>
+        <v>0.2164547735394742</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9825155830315134</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.8980771127548363</v>
+        <v>0.9805179990278212</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>5.854038711249399E-10</v>
+        <v>0.02293442966074934</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.7300873886108452</v>
+        <v>0.772482979257929</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>1.7509015977300392E-7</v>
+        <v>6.156032875184385E-7</v>
       </c>
       <c r="M36" t="n" s="25">
         <v>1.4658832734971673E-37</v>
@@ -1812,28 +1812,28 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9637737615122026</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.07541813561346608</v>
+        <v>0.21645477455047524</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.9836875112577306</v>
+        <v>0.9878665993448128</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.8980772299438537</v>
+        <v>0.9805180153320261</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>1.6725824871100036E-9</v>
+        <v>0.06285000239247994</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.8660762251141307</v>
+        <v>0.9191865767349978</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>6.145054538843331E-6</v>
+        <v>0.9928639601452801</v>
       </c>
       <c r="M37" t="n" s="25">
         <v>2.0533755640502E-34</v>
@@ -1847,28 +1847,28 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.9991103295372367</v>
+        <v>0.9991560784779769</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.9793089166228728</v>
+        <v>0.9890844708613155</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.6876417740620906</v>
+        <v>0.9534643932811601</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.9973771382926307</v>
+        <v>0.9981270372616223</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.9791929167429633</v>
+        <v>0.9968317086232488</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.21291836821245083</v>
+        <v>1.0</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9793994234682715</v>
+        <v>0.993981372044012</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.9132381103977213</v>
+        <v>1.0</v>
       </c>
       <c r="M38" t="n" s="25">
         <v>2.631844059530539E-13</v>
@@ -1882,28 +1882,28 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9637737615122026</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.07541813549356326</v>
+        <v>0.21645477435605195</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.9839786572894015</v>
+        <v>0.9880840603561512</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.8980772185031288</v>
+        <v>0.9805180137403072</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>1.4635096765272338E-9</v>
+        <v>0.055429217903148205</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.867810193633498</v>
+        <v>0.920280261830728</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>5.574133662959207E-6</v>
+        <v>0.992078958065397</v>
       </c>
       <c r="M39" t="n" s="25">
         <v>1.2991054020890683E-34</v>
@@ -1917,28 +1917,28 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.9989177443749853</v>
+        <v>0.9989733863204286</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.9070789731786727</v>
+        <v>0.9387823734434894</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.019984954677613714</v>
+        <v>0.06460110668197493</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.9678731231818247</v>
+        <v>0.9752272136877697</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.5322606046754733</v>
+        <v>0.8448873680338381</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>3.476212878469919E-12</v>
+        <v>1.2419540938674264E-4</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.8493105854605634</v>
+        <v>0.9062964197719305</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>1.9627213916082556E-7</v>
+        <v>0.7969298263362011</v>
       </c>
       <c r="M40" t="n" s="25">
         <v>7.261544626463818E-38</v>
@@ -1952,25 +1952,25 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.9999866121484826</v>
+        <v>0.9999312095666802</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9999999987621196</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.9999659368345347</v>
+        <v>0.9998560838702113</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.999999999999573</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9999994278489777</v>
+        <v>1.0</v>
       </c>
       <c r="L41" t="n" s="25">
         <v>1.0</v>
@@ -1987,28 +1987,28 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.7615850757590413</v>
+        <v>0.7710459687810896</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.10113948525936915</v>
+        <v>0.13648696079700656</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>7.107617348924314E-4</v>
+        <v>0.003633648875317999</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.0850011765623238</v>
+        <v>0.11178261162206608</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>1.8033128666795828E-6</v>
+        <v>7.0567503676874096E-6</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>3.34950693638483E-20</v>
+        <v>5.169489060291857E-13</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>3.118114002136432E-5</v>
+        <v>3.9294702501207746E-5</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>5.21928487260433E-22</v>
+        <v>1.3980215344029998E-21</v>
       </c>
       <c r="M42" t="n" s="25">
         <v>1.121735973981497E-53</v>
@@ -2022,28 +2022,28 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.999006305936356</v>
+        <v>0.9990573989679111</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.9576767689906205</v>
+        <v>0.9735479534872922</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.13086264263775027</v>
+        <v>0.3312977334564453</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.9927763656290799</v>
+        <v>0.994834853402433</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.9532176085820759</v>
+        <v>0.9914913768624616</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>2.73171090239185E-8</v>
+        <v>0.5204148970035399</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.889977094332537</v>
+        <v>0.9361308774796815</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>1.857345239153092E-6</v>
+        <v>8.002455674909735E-6</v>
       </c>
       <c r="M43" t="n" s="25">
         <v>1.5284192415899508E-34</v>
@@ -2057,28 +2057,28 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.9439814381568089</v>
+        <v>0.9653594882757651</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.15700845696071744</v>
+        <v>0.46921492047599833</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.9836875112577306</v>
+        <v>0.9878665993448128</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.8980777639408846</v>
+        <v>0.9805180896257748</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>1.13458042525168E-7</v>
+        <v>0.9999999664439628</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.8660768779164872</v>
+        <v>0.9191868554527856</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>3.072451747887432E-5</v>
+        <v>0.9985645975578281</v>
       </c>
       <c r="M44" t="n" s="25">
         <v>2.1335131130027344E-30</v>
@@ -2092,28 +2092,28 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9991221140378636</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.9810858555481092</v>
+        <v>0.988776759894718</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.24601142606806406</v>
+        <v>0.47939313156844593</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.9950814895289244</v>
+        <v>0.9964739200265905</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.9832626213731477</v>
+        <v>0.9975134808012177</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>3.9854147252889284E-7</v>
+        <v>0.9370580100813636</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.8813222180208912</v>
+        <v>0.9305987227850674</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>1.1466677666372354E-4</v>
+        <v>0.999663501723961</v>
       </c>
       <c r="M45" t="n" s="25">
         <v>4.384460207367395E-31</v>
@@ -2127,28 +2127,28 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5825967006375604</v>
+        <v>0.5953867874863769</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.0012288133025817065</v>
+        <v>0.0015567097259872125</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>1.7013998220604048E-12</v>
+        <v>4.932075975696706E-12</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>6.895480552771871E-4</v>
+        <v>7.711092239315905E-4</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>6.206338205636857E-19</v>
+        <v>9.127963666103086E-19</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>2.7496353285099376E-49</v>
+        <v>7.79570219493539E-49</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>1.6026776057873426E-10</v>
+        <v>1.7505798994368307E-10</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>2.1007579836039155E-44</v>
+        <v>2.81845363109191E-44</v>
       </c>
       <c r="M46" t="n" s="25">
         <v>4.7521354302334254E-95</v>
@@ -2162,28 +2162,28 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.852288690535177</v>
+        <v>0.8588174804990142</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.18772624292656712</v>
+        <v>0.24548920192108112</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>5.49185166983688E-4</v>
+        <v>0.0039451334902811</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.1458037799758463</v>
+        <v>0.18390612656480687</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>1.4925993507164658E-7</v>
+        <v>3.655634613987391E-7</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>1.1882299935719774E-23</v>
+        <v>5.694027432145092E-17</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>1.7466472156874076E-4</v>
+        <v>3.0328905022497814E-4</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>9.753248493557808E-24</v>
+        <v>2.3129139110551333E-23</v>
       </c>
       <c r="M47" t="n" s="25">
         <v>1.3423374759254552E-56</v>
@@ -2197,28 +2197,28 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.6853705750715989</v>
+        <v>0.6966511904952137</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.04566793876626741</v>
+        <v>0.060744197853069136</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>1.94862807915544E-4</v>
+        <v>0.0011612401774907931</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.04561282882394601</v>
+        <v>0.060615604594460484</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>1.3104507840047902E-7</v>
+        <v>4.947598663402987E-7</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>2.271048997650491E-21</v>
+        <v>1.4216511703285197E-14</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>3.6723588261288262E-6</v>
+        <v>4.609650195469589E-6</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>4.8464849813789295E-24</v>
+        <v>1.2576100837985031E-23</v>
       </c>
       <c r="M48" t="n" s="25">
         <v>4.7349917575790704E-55</v>
@@ -2232,28 +2232,28 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9988289146221508</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.8983448208260167</v>
+        <v>0.9324760379089168</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.011290859431024298</v>
+        <v>0.037235005660157784</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.9307584856780335</v>
+        <v>0.9441218528246201</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.21663743709526972</v>
+        <v>0.5237779722486302</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>4.013833580737733E-14</v>
+        <v>1.2519649150522007E-6</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.652306255731659</v>
+        <v>0.6900105294944638</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>5.437792347466324E-10</v>
+        <v>1.4718547537004434E-9</v>
       </c>
       <c r="M49" t="n" s="25">
         <v>6.452374430176985E-43</v>
@@ -2267,28 +2267,28 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.8500986151475927</v>
+        <v>0.8567079380802765</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.19669251020622816</v>
+        <v>0.25443217008794117</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>2.2858615414079994E-5</v>
+        <v>7.11080187953328E-5</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.10971293329950056</v>
+        <v>0.1303706314026786</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>3.161710058599298E-6</v>
+        <v>9.67953272312245E-6</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>1.1135406103047937E-23</v>
+        <v>2.8645771165803253E-16</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>9.752668013316614E-4</v>
+        <v>0.001128805683714101</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>1.7637965076207936E-20</v>
+        <v>3.9306649664147655E-20</v>
       </c>
       <c r="M50" t="n" s="25">
         <v>5.829589821522494E-57</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.2882627855115602</v>
+        <v>0.2982020518285562</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>5.209876489757429E-4</v>
+        <v>6.546477118766508E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>5.44204949390989E-8</v>
+        <v>6.733229973565513E-7</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>5.209846572908317E-4</v>
+        <v>6.546424271834051E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>6.409424180301219E-20</v>
+        <v>8.763355805990117E-20</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>2.7956813586418178E-42</v>
+        <v>1.678578245305325E-41</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>3.864539082047357E-14</v>
+        <v>4.590764484820691E-14</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>8.572727088116605E-49</v>
+        <v>1.1009886984542953E-48</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>2.4987425982977394E-84</v>
+        <v>2.6345877429664494E-84</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,28 +2337,28 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.9990073756964236</v>
+        <v>0.999058413775684</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.9399809940375758</v>
+        <v>0.9620040449749125</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.06760485684941663</v>
+        <v>0.1971457017473875</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.976332310092944</v>
+        <v>0.9823788751603242</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.8903429888887523</v>
+        <v>0.9789183093530307</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>3.9779241902467383E-10</v>
+        <v>0.01575202093176782</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.7338953988795989</v>
+        <v>0.7760798342828594</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>1.5130911810335925E-7</v>
+        <v>5.33085273199004E-7</v>
       </c>
       <c r="M52" t="n" s="25">
         <v>9.006738616644905E-38</v>
@@ -2372,25 +2372,25 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9991519823504463</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.9999827953445111</v>
+        <v>0.9999176589049187</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9999364654944327</v>
+        <v>1.0</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.9998717594429295</v>
+        <v>0.999386501478298</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9999910560071051</v>
+        <v>1.0</v>
       </c>
       <c r="J53" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.9833753180847122</v>
+        <v>1.0</v>
       </c>
       <c r="L53" t="n" s="25">
         <v>1.0</v>
@@ -2407,25 +2407,25 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9991519823504463</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.9999936600525205</v>
+        <v>0.9999689330024132</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.99999867490031</v>
+        <v>1.0</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.9999883603959002</v>
+        <v>0.9999442919422401</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9999999994020954</v>
+        <v>1.0</v>
       </c>
       <c r="J54" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.999952927336288</v>
+        <v>1.0</v>
       </c>
       <c r="L54" t="n" s="25">
         <v>1.0</v>
@@ -2442,28 +2442,28 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9992586000660587</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.9998007380944234</v>
+        <v>0.9998715977335384</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.9224148947433747</v>
+        <v>0.9701591295636491</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.999919287680545</v>
+        <v>0.9999460162681404</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9996668041500031</v>
+        <v>0.9999642643324795</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.641606968771728</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9844909292284908</v>
+        <v>0.9956258172117005</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.9854879932509297</v>
+        <v>1.0</v>
       </c>
       <c r="M55" t="n" s="25">
         <v>1.1502840223021237E-13</v>
@@ -2477,25 +2477,25 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.9999744279750036</v>
+        <v>0.9998919557943996</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9999999999999984</v>
+        <v>1.0</v>
       </c>
       <c r="J56" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9999987328523009</v>
+        <v>1.0</v>
       </c>
       <c r="L56" t="n" s="25">
         <v>1.0</v>
@@ -2512,28 +2512,28 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9992874728754778</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.9997685417919141</v>
+        <v>0.9998731893453471</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.9748531198585203</v>
+        <v>0.9958810095616816</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.9997831729327564</v>
+        <v>0.9998554452319804</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9995447572708445</v>
+        <v>0.9999515438610941</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.9934884952557151</v>
+        <v>1.0</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.9151491758886678</v>
+        <v>0.9534811727460352</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.4273539190241322</v>
+        <v>0.9999999601591433</v>
       </c>
       <c r="M57" t="n" s="25">
         <v>1.692933039143313E-13</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999987299756118</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999999916217</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.9993744113189219</v>
+        <v>0.9995365738711016</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9999999951354414</v>
+        <v>0.999999998254345</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999999995857503</v>
+        <v>1.0</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.9804205571019377</v>
+        <v>0.9772906224640616</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9918645376684081</v>
+        <v>0.9976726984450242</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.44683149221674895</v>
+        <v>0.46973864925038133</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,28 +2582,28 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9991221140378636</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.9988790077598008</v>
+        <v>0.9994838638839794</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.999796995679348</v>
+        <v>0.9999900996598462</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.9975019536322183</v>
+        <v>0.9982103830189125</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.9996570117348362</v>
+        <v>0.9999216444491114</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9999969766519622</v>
+        <v>1.0</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.9019341658613231</v>
+        <v>0.9395437213060891</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.8394330623753135</v>
+        <v>0.9999999926160889</v>
       </c>
       <c r="M59" t="n" s="25">
         <v>4.148562433703532E-6</v>
@@ -2617,25 +2617,25 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.9999209791348291</v>
+        <v>0.9996661869717071</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9999999999999412</v>
+        <v>1.0</v>
       </c>
       <c r="J60" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.9993850664496642</v>
+        <v>1.0</v>
       </c>
       <c r="L60" t="n" s="25">
         <v>1.0</v>
@@ -2652,28 +2652,28 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9992586000660587</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.9999514996552895</v>
+        <v>0.9999687485661437</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9999948809293138</v>
+        <v>0.9999992758687725</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.999919287680545</v>
+        <v>0.9999460162681404</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9999999884542137</v>
+        <v>0.9999999973642457</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9999998845609451</v>
+        <v>1.0</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9996802976111755</v>
+        <v>0.9998727618408115</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9999631903679704</v>
+        <v>1.0</v>
       </c>
       <c r="M61" t="n" s="25">
         <v>0.13427694845683455</v>
@@ -2687,25 +2687,25 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.999994791587739</v>
+        <v>0.9999744734325953</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9999989172418282</v>
+        <v>1.0</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998455303631983</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.999999979338035</v>
+        <v>1.0</v>
       </c>
       <c r="J62" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9990674936986128</v>
+        <v>1.0</v>
       </c>
       <c r="L62" t="n" s="25">
         <v>1.0</v>
@@ -2722,25 +2722,25 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.9999809481281149</v>
+        <v>0.9999066431858105</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9999998688465175</v>
+        <v>1.0</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.9998807063141945</v>
+        <v>0.9994961252871444</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9999999867296046</v>
+        <v>1.0</v>
       </c>
       <c r="J63" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.9946065349453047</v>
+        <v>1.0</v>
       </c>
       <c r="L63" t="n" s="25">
         <v>1.0</v>
@@ -2757,25 +2757,25 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988625441701168</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.9999986664649917</v>
+        <v>0.9999931433926667</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.999999999959948</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.9998322282003985</v>
+        <v>0.9994416955179227</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9999999999861159</v>
+        <v>1.0</v>
       </c>
       <c r="J64" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.9998161185504492</v>
+        <v>1.0</v>
       </c>
       <c r="L64" t="n" s="25">
         <v>1.0</v>
@@ -2792,25 +2792,25 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.9991384966975401</v>
+        <v>0.9989411524322583</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.9999492529692122</v>
+        <v>0.9997746542089264</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9999968520250963</v>
+        <v>1.0</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.9999246801859794</v>
+        <v>0.9996818177677065</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9999996395454436</v>
+        <v>1.0</v>
       </c>
       <c r="J65" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9986320290636603</v>
+        <v>1.0</v>
       </c>
       <c r="L65" t="n" s="25">
         <v>1.0</v>
@@ -2827,28 +2827,28 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.987863816656439</v>
+        <v>0.988481220157009</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.6780030012415458</v>
+        <v>0.7600265161470422</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.00501335539017693</v>
+        <v>0.02276509930142211</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.5172128488402249</v>
+        <v>0.5738462355314451</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.010841615567494897</v>
+        <v>0.04073676606559976</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>6.403447438979856E-15</v>
+        <v>0.5649227689118297</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.10204939668665697</v>
+        <v>0.11881691141468084</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>1.1780146133478306E-12</v>
+        <v>3.1216810333014286E-12</v>
       </c>
       <c r="M66" t="n" s="25">
         <v>9.723919110083518E-43</v>
@@ -2862,28 +2862,28 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9992586000660587</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.9996535416535808</v>
+        <v>0.9997767342133144</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.7024552726329008</v>
+        <v>0.7675430737912123</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.9999614742744677</v>
+        <v>0.9999742327640475</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9997637676789621</v>
+        <v>0.9999722277612744</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.0067971222466370294</v>
+        <v>0.03403136480386842</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9979192652488539</v>
+        <v>0.9996740437956458</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.9996558290240879</v>
+        <v>1.0</v>
       </c>
       <c r="M67" t="n" s="25">
         <v>4.823955781714656E-15</v>
@@ -2897,25 +2897,25 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.9990739168110178</v>
+        <v>0.9988617961056364</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.9986485615680448</v>
+        <v>0.9951247386374638</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.998497598568461</v>
+        <v>1.0</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.9993241597667982</v>
+        <v>0.9974699187867525</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.999577635108817</v>
+        <v>1.0</v>
       </c>
       <c r="J68" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.9830151353096767</v>
+        <v>1.0</v>
       </c>
       <c r="L68" t="n" s="25">
         <v>1.0</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.857288604307878</v>
+        <v>0.8636316750156766</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.21023971237932426</v>
+        <v>0.279286538675328</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.003456367110745484</v>
+        <v>0.024040319005964116</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.15777797779971173</v>
+        <v>0.20281696326322682</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>6.81834203851803E-7</v>
+        <v>2.3704370397166373E-6</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>4.43307225113981E-22</v>
+        <v>2.318926874156173E-16</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>1.5245303784674667E-5</v>
+        <v>1.9262370428705128E-5</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>3.149954108872318E-24</v>
+        <v>7.885959700137151E-24</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>3.542205550905562E-55</v>
+        <v>3.734778977971192E-55</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,28 +2967,28 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.9460462837663478</v>
+        <v>0.9674267961059221</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.29835030713849514</v>
+        <v>0.7387759760211207</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.9891148631934997</v>
+        <v>0.9919149489069257</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.8981104294839193</v>
+        <v>0.9805226346950536</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>2.0447315774484637E-5</v>
+        <v>1.0</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.9401232461098255</v>
+        <v>0.9747992313765504</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>0.004963421363094724</v>
+        <v>0.9999999999986144</v>
       </c>
       <c r="M70" t="n" s="25">
         <v>2.5406151664885096E-23</v>
@@ -3002,28 +3002,28 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.08127374270277339</v>
+        <v>0.0838358088368276</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.004869244301800392</v>
+        <v>0.006656589083436276</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>7.012043216501096E-5</v>
+        <v>1.742201831015067E-4</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.004861434210622306</v>
+        <v>0.006645931302105733</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>4.2369542529474744E-7</v>
+        <v>2.24011549152418E-6</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>1.2641237759468642E-16</v>
+        <v>5.051724137244831E-10</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>2.7613288225810218E-5</v>
+        <v>9.618181508931574E-5</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>2.1106172710242275E-15</v>
+        <v>0.9998440306259121</v>
       </c>
       <c r="M71" t="n" s="25">
         <v>7.070061179311512E-39</v>
@@ -3037,28 +3037,28 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.9889693696564325</v>
+        <v>0.9895311264415216</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.6889866610348987</v>
+        <v>0.7738994938665484</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.26100730577686265</v>
+        <v>0.8630026174131029</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.6144408452513583</v>
+        <v>0.6750269343217603</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.05723059047459066</v>
+        <v>0.2200092635385232</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>2.5726607692474518E-5</v>
+        <v>1.0</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.2562298528097373</v>
+        <v>0.37080516671628355</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>3.4947897300629204E-7</v>
+        <v>0.8710188065292576</v>
       </c>
       <c r="M72" t="n" s="25">
         <v>7.07896826165851E-22</v>
@@ -3072,28 +3072,28 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.9909409056580948</v>
+        <v>0.9914031301211035</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.6893314396618564</v>
+        <v>0.7740340882863092</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.03435659210687108</v>
+        <v>0.10505470282221266</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.6118851399169912</v>
+        <v>0.6884190889859787</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.10461911627174451</v>
+        <v>0.40183743002000394</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>1.0681485302547637E-14</v>
+        <v>7.880080996056461E-14</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.02147935150111481</v>
+        <v>0.027608192936720077</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>7.890955815137945E-14</v>
+        <v>2.811258746905391E-13</v>
       </c>
       <c r="M73" t="n" s="25">
         <v>1.3308299052652243E-46</v>
@@ -3107,25 +3107,25 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987628592429082</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999905661312113</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>1.0</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.9995759674880899</v>
+        <v>0.9987480530251683</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9999999986610698</v>
+        <v>1.0</v>
       </c>
       <c r="J74" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.997740328479794</v>
+        <v>1.0</v>
       </c>
       <c r="L74" t="n" s="25">
         <v>1.0</v>
@@ -3142,25 +3142,25 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.9999293312809899</v>
+        <v>0.9996618495441695</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9998450377698266</v>
+        <v>1.0</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.9999435468012974</v>
+        <v>0.9997615036907965</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.999999811836745</v>
+        <v>1.0</v>
       </c>
       <c r="J75" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9998251984152177</v>
+        <v>1.0</v>
       </c>
       <c r="L75" t="n" s="25">
         <v>1.0</v>
@@ -3177,25 +3177,25 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988625441701168</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.9826216537898897</v>
+        <v>0.9299038275412039</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.42311545036740844</v>
+        <v>1.0</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.9964104585967679</v>
+        <v>0.9881492710934834</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.9832650065379421</v>
+        <v>1.0</v>
       </c>
       <c r="J76" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.9434889654949449</v>
+        <v>1.0</v>
       </c>
       <c r="L76" t="n" s="25">
         <v>1.0</v>
@@ -3212,28 +3212,28 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.9892944798163523</v>
+        <v>0.9898398495329166</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.6775141859303936</v>
+        <v>0.7596531585342396</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.0033447005608139542</v>
+        <v>0.010954680300905033</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.5294652643686812</v>
+        <v>0.5955450686307343</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.005705215175073295</v>
+        <v>0.022511480462609677</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>7.483537915620657E-19</v>
+        <v>4.3160164598733694E-18</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.036312023993304604</v>
+        <v>0.04417936270247203</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>1.2133391533410356E-15</v>
+        <v>3.3321102228820327E-15</v>
       </c>
       <c r="M77" t="n" s="25">
         <v>4.615360360735812E-52</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9988289146221508</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.9997715537549691</v>
+        <v>0.9998709771341047</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9992217052764925</v>
+        <v>0.9999661054197477</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.9929128379224529</v>
+        <v>0.9943534081153294</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9801679226674843</v>
+        <v>0.9949166927077032</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.6376233022628182</v>
+        <v>1.0</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.654422589599803</v>
+        <v>0.6913435203875095</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.02797954624641204</v>
+        <v>0.07228098430325942</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>1.3659996997507443E-16</v>
+        <v>1.5185037830333855E-16</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.9991824003214459</v>
+        <v>0.9992244460733057</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.9944766855023411</v>
+        <v>0.9973135928785446</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.980242871999348</v>
+        <v>0.9986215938928023</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.985263336532908</v>
+        <v>0.9897894958599796</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.9808540447791779</v>
+        <v>0.997225050519381</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.9254246162426071</v>
+        <v>1.0</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.5379506748611051</v>
+        <v>0.6071710231354527</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>6.245299521519128E-4</v>
+        <v>0.002559439856820514</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>2.5583413570822093E-17</v>
+        <v>2.6972759015166417E-17</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,28 +3317,28 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.9952910222995766</v>
+        <v>0.9955322907423128</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.8487394507844647</v>
+        <v>0.8974300937373877</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.09270952351297695</v>
+        <v>0.21866700880766826</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.902092485997909</v>
+        <v>0.9279027517290208</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.8735212108376265</v>
+        <v>0.9786186947009181</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>8.474082729869633E-9</v>
+        <v>0.23883673645653303</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.5564388794185607</v>
+        <v>0.6937342240994937</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>1.1415346329082678E-6</v>
+        <v>0.9664883976440489</v>
       </c>
       <c r="M80" t="n" s="25">
         <v>4.922609772217173E-34</v>
@@ -3352,25 +3352,25 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.08035260961334564</v>
+        <v>0.07105001546037724</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.004095903684446027</v>
+        <v>0.0014904650749476285</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>4.2118729663470465E-4</v>
+        <v>1.0</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.0040953102027770595</v>
+        <v>0.0014896194456372315</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>2.994879705006327E-7</v>
+        <v>1.0</v>
       </c>
       <c r="J81" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>6.2416491454732E-5</v>
+        <v>1.0</v>
       </c>
       <c r="L81" t="n" s="25">
         <v>1.0</v>
@@ -3387,28 +3387,28 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.9438821658525599</v>
+        <v>0.965257566757676</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.15494960091791873</v>
+        <v>0.4652947178565913</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9825155830315134</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.8980771916822218</v>
+        <v>0.9805180100087828</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>5.0327847210546497E-8</v>
+        <v>0.9999999249232286</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.7300875401694253</v>
+        <v>0.7724830693723257</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>1.167266573684311E-6</v>
+        <v>4.104007600293021E-6</v>
       </c>
       <c r="M82" t="n" s="25">
         <v>4.443211119983516E-33</v>
@@ -3422,28 +3422,28 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9637737615122026</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.0754181349899714</v>
+        <v>0.2164547735394742</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9825155830315134</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.8980771127548363</v>
+        <v>0.9805179990278212</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>5.854038711249399E-10</v>
+        <v>0.02293442966074934</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.7300873886108452</v>
+        <v>0.772482979257929</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>1.7509015977300392E-7</v>
+        <v>6.156032875184385E-7</v>
       </c>
       <c r="M83" t="n" s="25">
         <v>1.4658832734971673E-37</v>
@@ -3457,25 +3457,25 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9991519823504463</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.9999975898290161</v>
+        <v>0.9999879027979182</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9999999634678386</v>
+        <v>1.0</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.9999752815281016</v>
+        <v>0.9998817013135176</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.9999999974569452</v>
+        <v>1.0</v>
       </c>
       <c r="J84" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.9938673165781534</v>
+        <v>1.0</v>
       </c>
       <c r="L84" t="n" s="25">
         <v>1.0</v>
@@ -3492,25 +3492,25 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987628592429082</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999905661312113</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>1.0</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.9997133626502709</v>
+        <v>0.9991534821357767</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9999999996269755</v>
+        <v>1.0</v>
       </c>
       <c r="J85" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.9997361565408506</v>
+        <v>1.0</v>
       </c>
       <c r="L85" t="n" s="25">
         <v>1.0</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.9991493793904361</v>
+        <v>0.9991931219178672</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.9999564172535871</v>
+        <v>0.9999712533069834</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.999978668958296</v>
+        <v>0.9999978231448104</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.9996911263729946</v>
+        <v>0.9997862512819541</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9999933646528452</v>
+        <v>0.9999985822349492</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9999988218862566</v>
+        <v>1.0</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.9450441794318463</v>
+        <v>0.9637572450153804</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.9742297570877685</v>
+        <v>0.9999999991007573</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>2.523351031784369E-5</v>
+        <v>2.6063392003794118E-5</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,25 +3562,25 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.9988921685964943</v>
+        <v>0.9986384749298577</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.9999489994710343</v>
+        <v>0.9997864755327911</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9999993526258949</v>
+        <v>1.0</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.9974788371540041</v>
+        <v>0.9934298869874336</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9999813157765584</v>
+        <v>1.0</v>
       </c>
       <c r="J87" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.966259423372731</v>
+        <v>1.0</v>
       </c>
       <c r="L87" t="n" s="25">
         <v>1.0</v>
@@ -3597,28 +3597,28 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.02193790848064457</v>
+        <v>0.022570365690821444</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>1.30455673434251E-4</v>
+        <v>1.7201837231533204E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>3.0934256829314437E-6</v>
+        <v>3.455616772132958E-5</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>1.3043263977574092E-4</v>
+        <v>1.719810062350823E-4</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>1.0845358816631109E-10</v>
+        <v>5.417008801562896E-10</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>1.8345947701943343E-14</v>
+        <v>1.0</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>2.6619494533157742E-8</v>
+        <v>3.271913547756423E-8</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>3.556694372933297E-21</v>
+        <v>1.1150856945252878E-20</v>
       </c>
       <c r="M88" t="n" s="25">
         <v>1.3766224372112725E-36</v>
@@ -3632,28 +3632,28 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.9991493793904361</v>
+        <v>0.9991931219064911</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.9984880937445636</v>
+        <v>0.9991764352057984</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.9992373943664389</v>
+        <v>0.9999402791705567</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.9955211947885253</v>
+        <v>0.9968965612858803</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.9986877539208423</v>
+        <v>0.9997160631773349</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9999710897199614</v>
+        <v>1.0</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.9145678148050416</v>
+        <v>0.9623924041621992</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.9360406813716898</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="M89" t="n" s="25">
         <v>6.602339858242662E-6</v>
@@ -3667,25 +3667,25 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9991519823504463</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.999990260531745</v>
+        <v>0.9999533858060138</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9998980484414121</v>
+        <v>1.0</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.999973776860007</v>
+        <v>0.9998745009255523</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9999988069468096</v>
+        <v>1.0</v>
       </c>
       <c r="J90" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.9834302895978223</v>
+        <v>1.0</v>
       </c>
       <c r="L90" t="n" s="25">
         <v>1.0</v>
@@ -3702,28 +3702,28 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556630283</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.9185211081540053</v>
+        <v>0.9492653127041479</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.16319312820189275</v>
+        <v>0.4806378690366271</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.9277251810828356</v>
+        <v>0.945446117538972</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.6387217051209041</v>
+        <v>0.8965649779680248</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>1.2093222653696724E-10</v>
+        <v>0.0018464188062056613</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.4863143614760386</v>
+        <v>0.5430339288976309</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>6.6306966024826015E-9</v>
+        <v>2.0946015437628846E-8</v>
       </c>
       <c r="M91" t="n" s="25">
         <v>1.978067544289216E-38</v>
@@ -3737,25 +3737,25 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.9898732271897709</v>
+        <v>0.9875798739306365</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.9936830095453267</v>
+        <v>0.9768327708844219</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9999077542233377</v>
+        <v>1.0</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.8432899707777651</v>
+        <v>0.6455281875249907</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.9877212256617067</v>
+        <v>1.0</v>
       </c>
       <c r="J92" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.3061504850955707</v>
+        <v>1.0</v>
       </c>
       <c r="L92" t="n" s="25">
         <v>1.0</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9992874728598495</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.9987713433937837</v>
+        <v>0.9993079518150151</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.9411210241008752</v>
+        <v>0.9860931838268212</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.9968310697512207</v>
+        <v>0.9978852485872195</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.997040187358653</v>
+        <v>0.9996474225661648</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>0.0065136521381850025</v>
+        <v>0.9999999999939384</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.575137054745964</v>
+        <v>0.6484864595866409</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>8.423446777054117E-5</v>
+        <v>3.926320774221793E-4</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>1.4485121489102912E-25</v>
+        <v>1.5272606300358766E-25</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,25 +3807,25 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987628592429082</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999905661312113</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>1.0</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.9995759674880899</v>
+        <v>0.9987480530251683</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9999999986610698</v>
+        <v>1.0</v>
       </c>
       <c r="J94" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.997740328479794</v>
+        <v>1.0</v>
       </c>
       <c r="L94" t="n" s="25">
         <v>1.0</v>
@@ -3842,28 +3842,28 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9992586000556051</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.999418580292348</v>
+        <v>0.9996252883058498</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.9268547150633971</v>
+        <v>0.9720586426503868</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.9991338567646012</v>
+        <v>0.9994205368459083</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.998300664578392</v>
+        <v>0.9997967866087536</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>0.004096519572143614</v>
+        <v>0.9999838994095518</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.9046145571022751</v>
+        <v>0.9619491244496269</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.046250193639643</v>
+        <v>0.9999999999993374</v>
       </c>
       <c r="M95" t="n" s="25">
         <v>2.8321426895025983E-22</v>
@@ -3877,25 +3877,25 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.9998166382468096</v>
+        <v>0.9990802522191438</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9999385338362781</v>
+        <v>1.0</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.9570677610641116</v>
+        <v>0.8406573471079799</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.9653101214980978</v>
+        <v>1.0</v>
       </c>
       <c r="J96" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.4771678534257438</v>
+        <v>1.0</v>
       </c>
       <c r="L96" t="n" s="25">
         <v>1.0</v>
@@ -3912,25 +3912,25 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984827843506957</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.9999962083360194</v>
+        <v>0.9999805046840048</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9999999643406988</v>
+        <v>1.0</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.998316919507106</v>
+        <v>0.9961158590010847</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9999987771930935</v>
+        <v>1.0</v>
       </c>
       <c r="J97" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.9916193030061612</v>
+        <v>1.0</v>
       </c>
       <c r="L97" t="n" s="25">
         <v>1.0</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9993455448897671</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.9995622568786408</v>
+        <v>0.9997043665007754</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9973396688874512</v>
+        <v>0.9996175355910966</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.983178186914151</v>
+        <v>0.9890957052505707</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.9874322742443433</v>
+        <v>0.9982863912576433</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.0644556843311822</v>
+        <v>0.9999999999605748</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.2800190607165498</v>
+        <v>0.43260336803339583</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>1.1110172746290665E-4</v>
+        <v>0.9898142666283485</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>5.5790597905780674E-21</v>
+        <v>6.202136255659896E-21</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,25 +3982,25 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.9989549874540834</v>
+        <v>0.998715660825046</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.9999760644030731</v>
+        <v>0.9998769532552394</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9999839994633144</v>
+        <v>1.0</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.9924721329027262</v>
+        <v>0.9782184633187945</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9951702680350052</v>
+        <v>1.0</v>
       </c>
       <c r="J99" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.7784321171080184</v>
+        <v>1.0</v>
       </c>
       <c r="L99" t="n" s="25">
         <v>1.0</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.9669058030551283</v>
+        <v>0.9685554640386276</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.4691257518335273</v>
+        <v>0.5623549217763197</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.016435233804547537</v>
+        <v>0.056543061722992026</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.3924808401228671</v>
+        <v>0.4655807964599478</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.008321122330634983</v>
+        <v>0.03733734526611683</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>2.240902153851465E-14</v>
+        <v>2.4043075589805633E-7</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.024072202035054738</v>
+        <v>0.041514763511861334</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>4.791996263937024E-13</v>
+        <v>2.7634445741143967E-6</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>4.4879958901500624E-42</v>
+        <v>4.731987588766355E-42</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,28 +4052,28 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9992586000660587</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.9999514996552895</v>
+        <v>0.9999687485661437</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9999948809293138</v>
+        <v>0.9999992758687725</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.999919287680545</v>
+        <v>0.9999460162681404</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9999999884542137</v>
+        <v>0.9999999973642457</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9999998845609451</v>
+        <v>1.0</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9996802976111755</v>
+        <v>0.9998727618408115</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9999631903679704</v>
+        <v>1.0</v>
       </c>
       <c r="M101" t="n" s="25">
         <v>0.13427694845683455</v>
@@ -4087,28 +4087,28 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.9438821658525599</v>
+        <v>0.965257566757676</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.15494962016290326</v>
+        <v>0.46529474223446743</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.9839786572894015</v>
+        <v>0.9880840603561512</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.8980779057118817</v>
+        <v>0.9805181093500746</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>1.258196085280212E-7</v>
+        <v>0.9999999699692901</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.8678110281584852</v>
+        <v>0.9202806176359872</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>3.7159717331417445E-5</v>
+        <v>0.9988037897630777</v>
       </c>
       <c r="M102" t="n" s="25">
         <v>3.9376880470615084E-30</v>
@@ -4122,28 +4122,28 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9991221140378636</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.9810858555481092</v>
+        <v>0.988776759894718</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.2460113940870183</v>
+        <v>0.4793931028815781</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.9929869822369769</v>
+        <v>0.9949693701453327</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.9832625095978323</v>
+        <v>0.997513469570477</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>1.1956247511409129E-7</v>
+        <v>0.8170606842608256</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.759246170580793</v>
+        <v>0.802500446624334</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>2.930227462600291E-6</v>
+        <v>1.1698590110524882E-5</v>
       </c>
       <c r="M103" t="n" s="25">
         <v>1.8252163599519083E-34</v>
@@ -4157,28 +4157,28 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.9438821658525599</v>
+        <v>0.965257566757676</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.15494960091791873</v>
+        <v>0.4652947178565913</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9825155830315134</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.8980771916822218</v>
+        <v>0.9805180100087828</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>5.0327847210546497E-8</v>
+        <v>0.9999999249232286</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.7300875401694253</v>
+        <v>0.7724830693723257</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>1.167266573684311E-6</v>
+        <v>4.104007600293021E-6</v>
       </c>
       <c r="M104" t="n" s="25">
         <v>4.443211119983516E-33</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9992874728263602</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.9966683408720581</v>
+        <v>0.9981463912175604</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9896438177136028</v>
+        <v>0.9987991068111438</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.9587633215577118</v>
+        <v>0.9721270422763396</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.9498922738953064</v>
+        <v>0.9915618506702293</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>8.451661617052273E-4</v>
+        <v>0.9999999997487997</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.19592344064100556</v>
+        <v>0.24928766429343613</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>5.026728532879398E-7</v>
+        <v>1.886507841095103E-6</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>2.4412135260595546E-27</v>
+        <v>2.5739308766965048E-27</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,28 +4227,28 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9637737615122026</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.07541813549356326</v>
+        <v>0.21645477435605195</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.9839786572894015</v>
+        <v>0.9880840603561512</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.8980772185031288</v>
+        <v>0.9805180137403072</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>1.4635096765272338E-9</v>
+        <v>0.055429217903148205</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.867810193633498</v>
+        <v>0.920280261830728</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>5.574133662959207E-6</v>
+        <v>0.992078958065397</v>
       </c>
       <c r="M106" t="n" s="25">
         <v>1.2991054020890683E-34</v>
@@ -4262,28 +4262,28 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.9956537070981696</v>
+        <v>0.9958764700673315</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.9869768529357147</v>
+        <v>0.9909521987751557</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.5814919676193349</v>
+        <v>0.7202383428663178</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.9946239660952453</v>
+        <v>0.9963979695471302</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.9935979677597592</v>
+        <v>0.9991873580268881</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>0.0010504820834869135</v>
+        <v>0.9999678056601233</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.9060992991137248</v>
+        <v>0.9730109320233835</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>0.012119292155827192</v>
+        <v>0.9999999999996407</v>
       </c>
       <c r="M107" t="n" s="25">
         <v>1.7257851884373666E-23</v>
@@ -4297,25 +4297,25 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9990393470483632</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999963885167154</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>1.0</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.9999459607947965</v>
+        <v>0.9997717002469008</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.999999999999983</v>
+        <v>1.0</v>
       </c>
       <c r="J108" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.9999245402669993</v>
+        <v>1.0</v>
       </c>
       <c r="L108" t="n" s="25">
         <v>1.0</v>
@@ -4332,28 +4332,28 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.9924786881518278</v>
+        <v>0.9928630156556508</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.7317380900187286</v>
+        <v>0.8036308478875908</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.003132520601195771</v>
+        <v>0.010234047470958137</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.6320251269303754</v>
+        <v>0.6834337381051974</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.022670037462673567</v>
+        <v>0.08225908961969843</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>2.865556147062459E-16</v>
+        <v>8.737083768938947E-9</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.18616334583406166</v>
+        <v>0.21346593381852227</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>1.1774710088211215E-12</v>
+        <v>3.1119517383180765E-12</v>
       </c>
       <c r="M109" t="n" s="25">
         <v>2.9530768064434952E-46</v>
@@ -4367,28 +4367,28 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9991221140378636</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.9867845180016819</v>
+        <v>0.9928597585509559</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.7952839058475079</v>
+        <v>0.9679209347731951</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.9929869822369769</v>
+        <v>0.9949693701453327</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.9832691277016412</v>
+        <v>0.9975141346003857</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.034737052874623434</v>
+        <v>1.0</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7592612854208179</v>
+        <v>0.8025091839003786</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>3.9054555442615154E-4</v>
+        <v>0.0015574009813698702</v>
       </c>
       <c r="M110" t="n" s="25">
         <v>2.6476673564123678E-22</v>
@@ -4402,28 +4402,28 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9990451556796934</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9637737615122026</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.0754181349899714</v>
+        <v>0.2164547735394742</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9825155830315134</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.8980771127548363</v>
+        <v>0.9805179990278212</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>5.854038711249399E-10</v>
+        <v>0.02293442966074934</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.7300873886108452</v>
+        <v>0.772482979257929</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>1.7509015977300392E-7</v>
+        <v>6.156032875184385E-7</v>
       </c>
       <c r="M111" t="n" s="25">
         <v>1.4658832734971673E-37</v>
